--- a/版本保存.xlsx
+++ b/版本保存.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MCEdu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MCEdu\Documents\GitHub\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A03BCA85-A8EA-4DE2-BFE6-FEA201BDABF3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8794D117-D19F-44DB-B848-E16A1E02AB54}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6920" xr2:uid="{FD8B8346-9CDC-45D5-9C80-6CAC3A58D5ED}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="19">
   <si>
     <t>Sharepoint</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -88,6 +88,18 @@
   </si>
   <si>
     <t>无需配置server</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x（付费账号可创建私有project）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -483,7 +495,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -523,6 +535,9 @@
       <c r="H1" t="s">
         <v>10</v>
       </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -549,7 +564,9 @@
       <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -577,6 +594,9 @@
       <c r="H3" t="s">
         <v>8</v>
       </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -603,6 +623,9 @@
       <c r="H4" t="s">
         <v>9</v>
       </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -629,6 +652,9 @@
       <c r="H5" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="I5" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -655,6 +681,9 @@
       <c r="H6" t="s">
         <v>9</v>
       </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -680,6 +709,9 @@
       </c>
       <c r="H7" t="s">
         <v>9</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
